--- a/TestData/OrganisationTestData.xlsx
+++ b/TestData/OrganisationTestData.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">OMS_FT_090</t>
   </si>
   <si>
-    <t xml:space="preserve">Dublin Public Library</t>
+    <t xml:space="preserve">Dublin2 Public Library</t>
   </si>
   <si>
     <t xml:space="preserve">Dublin Library </t>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,12 +147,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,10 +215,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,7 +298,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,7 +374,7 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">

--- a/TestData/OrganisationTestData.xlsx
+++ b/TestData/OrganisationTestData.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">OMS_FT_090</t>
   </si>
   <si>
-    <t xml:space="preserve">Dublin2 Public Library</t>
+    <t xml:space="preserve">Dublin3 Public Library</t>
   </si>
   <si>
     <t xml:space="preserve">Dublin Library </t>
